--- a/xlsx/轿车_intext.xlsx
+++ b/xlsx/轿车_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>轿车</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E8%BB%8A</t>
   </si>
   <si>
-    <t>旅行車</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_轿车</t>
+    <t>旅行车</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_轿车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%80%E8%83%8C%E8%BD%A6</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0</t>
   </si>
   <si>
-    <t>豐田</t>
+    <t>丰田</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%90%A8%E6%96%AFLS</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BF%E5%AD%90</t>
@@ -83,31 +83,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9E%8B%E8%BD%8E%E8%BB%8A</t>
   </si>
   <si>
-    <t>經濟型轎車</t>
+    <t>经济型轿车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Tiida</t>
   </si>
   <si>
-    <t>日產Tiida</t>
+    <t>日产Tiida</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%89%8D%E9%A9%85</t>
   </si>
   <si>
-    <t>前置前驅</t>
+    <t>前置前驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%88%A9Continental_GT</t>
   </si>
   <si>
-    <t>賓利Continental GT</t>
+    <t>宾利Continental GT</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B5%9B%E5%BE%B7%E6%96%AF-%E5%A5%94%E9%A9%B0S%E7%BA%A7</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%BE%8C%E9%A9%85</t>
   </si>
   <si>
-    <t>前置後驅</t>
+    <t>前置后驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E8%B1%B9XJ</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E9%9C%B8%E9%99%B8Impreza</t>
   </si>
   <si>
-    <t>速霸陸Impreza</t>
+    <t>速霸陆Impreza</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>跑車</t>
+    <t>跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E8%BD%AE%E9%A9%B1%E5%8A%A8</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%BC%AA%E9%A9%85%E5%8B%95</t>
   </si>
   <si>
-    <t>四輪驅動</t>
+    <t>四轮驱动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E5%88%86%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車分類</t>
+    <t>汽车分类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>發動機</t>
+    <t>发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -191,19 +191,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福斯汽車</t>
+    <t>福斯汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>林肯汽車</t>
+    <t>林肯汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9E%8B%E8%BD%8E%E8%BB%8A</t>
   </si>
   <si>
-    <t>大型轎車</t>
+    <t>大型轿车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E5%8D%8E%E8%BD%BF%E8%BD%A6</t>
@@ -269,9 +266,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B7%E4%BD%A0%E8%BD%A6</t>
   </si>
   <si>
@@ -281,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9E%8B%E8%99%9F</t>
   </si>
   <si>
-    <t>型號</t>
+    <t>型号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%95%E6%93%8E</t>
@@ -293,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8A%9B</t>
   </si>
   <si>
-    <t>馬力</t>
+    <t>马力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>變速器</t>
+    <t>变速器</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1505,7 @@
         <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1537,10 +1531,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1566,10 +1560,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -1595,10 +1589,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1624,10 +1618,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1653,10 +1647,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1682,10 +1676,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1711,10 +1705,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1740,10 +1734,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1769,10 +1763,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1798,10 +1792,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1827,10 +1821,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1856,10 +1850,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1885,10 +1879,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1914,10 +1908,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s">
         <v>79</v>
-      </c>
-      <c r="F44" t="s">
-        <v>80</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1943,10 +1937,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
         <v>79</v>
-      </c>
-      <c r="F45" t="s">
-        <v>80</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1972,10 +1966,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" t="s">
         <v>81</v>
-      </c>
-      <c r="F46" t="s">
-        <v>82</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2001,10 +1995,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2030,10 +2024,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2059,10 +2053,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2088,10 +2082,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -2117,10 +2111,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2146,10 +2140,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
